--- a/part_3_cohere/analysis/analysis_results.xlsx
+++ b/part_3_cohere/analysis/analysis_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>F1-Score</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -461,17 +466,152 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>which documents discuss textbooks in the United States?</t>
+          <t>which studies examined the abstract in metadata?</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.3333333333333334</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>which studies examined the abstract in metadata?</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>which studies examined the abstract in metadata?</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>which studies examined citations?</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9111111111111111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>which studies examined the abstract in metadata?</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>which studies examined citations?</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>which studies examined citations?</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9555555555555556</v>
       </c>
     </row>
   </sheetData>
